--- a/Code/web/dms_cloud_part/com.hsweb.cloud.part.common/src/webcontent/template/PartInfoImport.xlsx
+++ b/Code/web/dms_cloud_part/com.hsweb.cloud.part.common/src/webcontent/template/PartInfoImport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D930FF44-923C-48AA-8E7D-4D2E820FB385}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD74C63-9A05-49A6-8169-BEC5F570B3B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">单价 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,6 +39,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +371,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
